--- a/vuelos.xlsx
+++ b/vuelos.xlsx
@@ -504,7 +504,7 @@
         <v>7.6</v>
       </c>
       <c r="C2">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -515,7 +515,7 @@
         <v>4.2</v>
       </c>
       <c r="C3">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -537,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>238</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -548,7 +548,7 @@
         <v>2.2</v>
       </c>
       <c r="C6">
-        <v>107</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -559,7 +559,7 @@
         <v>1.2</v>
       </c>
       <c r="C7">
-        <v>321</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -570,7 +570,7 @@
         <v>-6.2</v>
       </c>
       <c r="C8">
-        <v>326</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -581,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -592,7 +592,7 @@
         <v>12.2</v>
       </c>
       <c r="C10">
-        <v>318</v>
+        <v>658</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -603,7 +603,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -614,7 +614,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="C12">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -625,7 +625,7 @@
         <v>-3.9</v>
       </c>
       <c r="C13">
-        <v>269</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -636,7 +636,7 @@
         <v>2.9</v>
       </c>
       <c r="C14">
-        <v>380</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -647,7 +647,7 @@
         <v>0.4</v>
       </c>
       <c r="C15">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -658,7 +658,7 @@
         <v>5.7</v>
       </c>
       <c r="C16">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -669,7 +669,7 @@
         <v>13.8</v>
       </c>
       <c r="C17">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -680,7 +680,7 @@
         <v>1.3</v>
       </c>
       <c r="C18">
-        <v>286</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -691,7 +691,7 @@
         <v>-2.4</v>
       </c>
       <c r="C19">
-        <v>221</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -702,7 +702,7 @@
         <v>1.9</v>
       </c>
       <c r="C20">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -713,7 +713,7 @@
         <v>5.8</v>
       </c>
       <c r="C21">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -724,7 +724,7 @@
         <v>2.3</v>
       </c>
       <c r="C22">
-        <v>324</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -735,7 +735,7 @@
         <v>2.9</v>
       </c>
       <c r="C23">
-        <v>293</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -746,7 +746,7 @@
         <v>2.3</v>
       </c>
       <c r="C24">
-        <v>246</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -757,7 +757,7 @@
         <v>-6.7</v>
       </c>
       <c r="C25">
-        <v>350</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -768,7 +768,7 @@
         <v>1.2</v>
       </c>
       <c r="C26">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -779,7 +779,7 @@
         <v>1.6</v>
       </c>
       <c r="C27">
-        <v>285</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -790,7 +790,7 @@
         <v>-2</v>
       </c>
       <c r="C28">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -801,7 +801,7 @@
         <v>3.7</v>
       </c>
       <c r="C29">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -812,7 +812,7 @@
         <v>13.5</v>
       </c>
       <c r="C30">
-        <v>216</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -823,7 +823,7 @@
         <v>-4.8</v>
       </c>
       <c r="C31">
-        <v>233</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -834,7 +834,7 @@
         <v>-0.9</v>
       </c>
       <c r="C32">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -845,7 +845,7 @@
         <v>2.5</v>
       </c>
       <c r="C33">
-        <v>186</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -856,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="C34">
-        <v>360</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/vuelos.xlsx
+++ b/vuelos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ciudad</t>
   </si>
@@ -23,105 +23,6 @@
   </si>
   <si>
     <t>precio/vuelo</t>
-  </si>
-  <si>
-    <t>Albania-Tirana</t>
-  </si>
-  <si>
-    <t>Austria-Viena</t>
-  </si>
-  <si>
-    <t>Bielorrusia-Minsk</t>
-  </si>
-  <si>
-    <t>Bulgaria-Sofia</t>
-  </si>
-  <si>
-    <t>Dinamarca-Copenhague</t>
-  </si>
-  <si>
-    <t>Eslovenia-Liubliana</t>
-  </si>
-  <si>
-    <t>Estonia-Tallín</t>
-  </si>
-  <si>
-    <t>Francia-Paris</t>
-  </si>
-  <si>
-    <t>Grecia-Atenas</t>
-  </si>
-  <si>
-    <t>Irlanda-Dublin</t>
-  </si>
-  <si>
-    <t>Italia-Roma</t>
-  </si>
-  <si>
-    <t>Lituania-Vilna</t>
-  </si>
-  <si>
-    <t>Macedonia-Skopie</t>
-  </si>
-  <si>
-    <t>Moldavia-Chisinau</t>
-  </si>
-  <si>
-    <t>Paises Bajos-Amsterdam</t>
-  </si>
-  <si>
-    <t>Portugal-Lisboa</t>
-  </si>
-  <si>
-    <t>República Checa-Praga</t>
-  </si>
-  <si>
-    <t>Suecia-Estocolmo</t>
-  </si>
-  <si>
-    <t>Alemania-Berlin</t>
-  </si>
-  <si>
-    <t>Belgica-Bruselas</t>
-  </si>
-  <si>
-    <t>Bosnia Hercegovina-Sarajevo</t>
-  </si>
-  <si>
-    <t>Croacia-Zagreb</t>
-  </si>
-  <si>
-    <t>Eslovaquia-Bratislava</t>
-  </si>
-  <si>
-    <t>Finlandia-Helsinki</t>
-  </si>
-  <si>
-    <t>Hungría-Budapest</t>
-  </si>
-  <si>
-    <t>Islandia-Reikiavik</t>
-  </si>
-  <si>
-    <t>Letonia-Riga</t>
-  </si>
-  <si>
-    <t>Luxemburgo-Luxemburgo</t>
-  </si>
-  <si>
-    <t>Malta-La Valeta</t>
-  </si>
-  <si>
-    <t>Noruega-Oslo</t>
-  </si>
-  <si>
-    <t>Polonia-Varsovia</t>
-  </si>
-  <si>
-    <t>Rumania-Bucarest</t>
-  </si>
-  <si>
-    <t>Yugoslavia-Belgrado</t>
   </si>
 </sst>
 </file>
@@ -497,8 +398,8 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>7.6</v>
@@ -508,8 +409,8 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3">
         <v>4.2</v>
@@ -519,8 +420,8 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>-3.9</v>
@@ -530,8 +431,8 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -541,8 +442,8 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6">
         <v>2.2</v>
@@ -552,8 +453,8 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1.2</v>
@@ -563,8 +464,8 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>9</v>
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8">
         <v>-6.2</v>
@@ -574,8 +475,8 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>10</v>
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -585,8 +486,8 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10">
         <v>12.2</v>
@@ -596,8 +497,8 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -607,8 +508,8 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>13</v>
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12">
         <v>9.199999999999999</v>
@@ -618,8 +519,8 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>14</v>
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13">
         <v>-3.9</v>
@@ -629,8 +530,8 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>15</v>
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2.9</v>
@@ -640,8 +541,8 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>16</v>
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15">
         <v>0.4</v>
@@ -651,8 +552,8 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>17</v>
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16">
         <v>5.7</v>
@@ -662,8 +563,8 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>18</v>
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17">
         <v>13.8</v>
@@ -673,8 +574,8 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18">
         <v>1.3</v>
@@ -684,8 +585,8 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19">
         <v>-2.4</v>
@@ -695,8 +596,8 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>21</v>
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20">
         <v>1.9</v>
@@ -706,8 +607,8 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>22</v>
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21">
         <v>5.8</v>
@@ -717,8 +618,8 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>23</v>
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22">
         <v>2.3</v>
@@ -728,8 +629,8 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>24</v>
+      <c r="A23">
+        <v>22</v>
       </c>
       <c r="B23">
         <v>2.9</v>
@@ -739,8 +640,8 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>25</v>
+      <c r="A24">
+        <v>23</v>
       </c>
       <c r="B24">
         <v>2.3</v>
@@ -750,8 +651,8 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>26</v>
+      <c r="A25">
+        <v>24</v>
       </c>
       <c r="B25">
         <v>-6.7</v>
@@ -761,8 +662,8 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>27</v>
+      <c r="A26">
+        <v>25</v>
       </c>
       <c r="B26">
         <v>1.2</v>
@@ -772,8 +673,8 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>28</v>
+      <c r="A27">
+        <v>26</v>
       </c>
       <c r="B27">
         <v>1.6</v>
@@ -783,8 +684,8 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>29</v>
+      <c r="A28">
+        <v>27</v>
       </c>
       <c r="B28">
         <v>-2</v>
@@ -794,8 +695,8 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>30</v>
+      <c r="A29">
+        <v>28</v>
       </c>
       <c r="B29">
         <v>3.7</v>
@@ -805,8 +706,8 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>31</v>
+      <c r="A30">
+        <v>29</v>
       </c>
       <c r="B30">
         <v>13.5</v>
@@ -816,8 +717,8 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>32</v>
+      <c r="A31">
+        <v>30</v>
       </c>
       <c r="B31">
         <v>-4.8</v>
@@ -827,8 +728,8 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>33</v>
+      <c r="A32">
+        <v>31</v>
       </c>
       <c r="B32">
         <v>-0.9</v>
@@ -838,8 +739,8 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>34</v>
+      <c r="A33">
+        <v>32</v>
       </c>
       <c r="B33">
         <v>2.5</v>
@@ -849,8 +750,8 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>35</v>
+      <c r="A34">
+        <v>33</v>
       </c>
       <c r="B34">
         <v>4</v>

--- a/vuelos.xlsx
+++ b/vuelos.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>ciudad</t>
+    <t>precio/vuelo</t>
   </si>
   <si>
-    <t>T/m dic 2021</t>
-  </si>
-  <si>
-    <t>precio/vuelo</t>
+    <t>ciudades_id</t>
   </si>
 </sst>
 </file>
@@ -380,384 +377,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>196</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>155</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>7.6</v>
-      </c>
-      <c r="C2">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>4.2</v>
-      </c>
-      <c r="C3">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4">
+        <v>1943</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>-3.9</v>
-      </c>
-      <c r="C4">
-        <v>1943</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
+        <v>233</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
+        <v>109</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>2.2</v>
-      </c>
-      <c r="C6">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
+        <v>230</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1.2</v>
-      </c>
-      <c r="C7">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
+        <v>375</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>-6.2</v>
-      </c>
-      <c r="C8">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
+        <v>162</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
+        <v>412</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>12.2</v>
-      </c>
-      <c r="C10">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
+        <v>58</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
+        <v>189</v>
+      </c>
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="C12">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
+        <v>226</v>
+      </c>
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>-3.9</v>
-      </c>
-      <c r="C13">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
+        <v>435</v>
+      </c>
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>2.9</v>
-      </c>
-      <c r="C14">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
+        <v>551</v>
+      </c>
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>0.4</v>
-      </c>
-      <c r="C15">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
+        <v>134</v>
+      </c>
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>5.7</v>
-      </c>
-      <c r="C16">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
+        <v>53</v>
+      </c>
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>13.8</v>
-      </c>
-      <c r="C17">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
+        <v>274</v>
+      </c>
+      <c r="B18">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>1.3</v>
-      </c>
-      <c r="C18">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
+        <v>146</v>
+      </c>
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>-2.4</v>
-      </c>
-      <c r="C19">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
+        <v>181</v>
+      </c>
+      <c r="B20">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>1.9</v>
-      </c>
-      <c r="C20">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
+        <v>92</v>
+      </c>
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>5.8</v>
-      </c>
-      <c r="C21">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
+        <v>326</v>
+      </c>
+      <c r="B22">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>2.3</v>
-      </c>
-      <c r="C22">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
+        <v>322</v>
+      </c>
+      <c r="B23">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>2.9</v>
-      </c>
-      <c r="C23">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
+        <v>172</v>
+      </c>
+      <c r="B24">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>2.3</v>
-      </c>
-      <c r="C24">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
+        <v>368</v>
+      </c>
+      <c r="B25">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>-6.7</v>
-      </c>
-      <c r="C25">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
+        <v>158</v>
+      </c>
+      <c r="B26">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>1.2</v>
-      </c>
-      <c r="C26">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
+        <v>536</v>
+      </c>
+      <c r="B27">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>1.6</v>
-      </c>
-      <c r="C27">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
+        <v>348</v>
+      </c>
+      <c r="B28">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>-2</v>
-      </c>
-      <c r="C28">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
+        <v>130</v>
+      </c>
+      <c r="B29">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>3.7</v>
-      </c>
-      <c r="C29">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30">
+        <v>199</v>
+      </c>
+      <c r="B30">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>13.5</v>
-      </c>
-      <c r="C30">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31">
+        <v>315</v>
+      </c>
+      <c r="B31">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>-4.8</v>
-      </c>
-      <c r="C31">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32">
+        <v>108</v>
+      </c>
+      <c r="B32">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>-0.9</v>
-      </c>
-      <c r="C32">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33">
+        <v>189</v>
+      </c>
+      <c r="B33">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>2.5</v>
-      </c>
-      <c r="C33">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34">
+        <v>378</v>
+      </c>
+      <c r="B34">
         <v>33</v>
-      </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34">
-        <v>385</v>
       </c>
     </row>
   </sheetData>
